--- a/Requirements Traceability Matrix.xlsx
+++ b/Requirements Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Documents\aiml\EE954 Deep Learning\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C871B6-F87A-4B58-BA0C-2651FD2BCBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494A5B2-FD2B-4FA5-A5D0-C22B01F085F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E34C4356-E874-41C9-AF84-AAB1A8BCFBA1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{E34C4356-E874-41C9-AF84-AAB1A8BCFBA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Dataset is correctly split into training, validation, and testing sets as specified.</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -240,47 +237,36 @@
     <t>Done</t>
   </si>
   <si>
-    <t>iPynb Cell Reference</t>
-  </si>
-  <si>
-    <t># Data Loading</t>
-  </si>
-  <si>
-    <t># Data Loading
-Made notes in the Data Loading cell explain the Transform.ToTensor() method</t>
-  </si>
-  <si>
-    <t>#Image Pre-Processing</t>
-  </si>
-  <si>
-    <t>CNN Backbone with channels and RELU and Max Pooling</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cnn_output_np = nn_network.flatten(cnn_output_np)  
-should we do this Flatten in the CNN or are we doing this in the MLP ?
-</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Packaging and Cleaning</t>
+  </si>
+  <si>
+    <t>Testing and Tuning</t>
+  </si>
+  <si>
+    <t>Visualisation of Errors and Evaluation Metrics, Compare different hyperparameters, (what we trained, and how we trained)</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Inference/Fitting the Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Readme file creation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -299,14 +285,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -347,31 +325,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB5730-3AF7-4E8A-85C4-37F5735EFBD8}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,12 +664,10 @@
     <col min="2" max="2" width="37" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1"/>
-    <col min="6" max="6" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="15.85546875" style="1"/>
+    <col min="5" max="16384" width="15.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -717,11 +683,8 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -735,295 +698,343 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>